--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/DISTRICT_OF_COLUMBIA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/DISTRICT_OF_COLUMBIA_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D156"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -387,7 +387,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C2">
@@ -685,7 +685,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -864,12 +864,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C36">
@@ -921,7 +921,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C40">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C53">
@@ -1139,7 +1139,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C56">
@@ -1165,7 +1165,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C58">
@@ -1178,7 +1178,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C59">
@@ -1230,7 +1230,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C63">
@@ -1300,7 +1300,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C68">
@@ -1440,7 +1440,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C78">
@@ -1528,7 +1528,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C84">
@@ -1541,7 +1541,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C85">
@@ -1567,7 +1567,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C87">
@@ -1606,7 +1606,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C90">
@@ -1619,7 +1619,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C91">
@@ -1775,7 +1775,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C103">
@@ -1910,7 +1910,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C113">
@@ -2001,7 +2001,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C120">
@@ -2439,41 +2439,6 @@
       </c>
       <c r="D150">
         <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/DISTRICT_OF_COLUMBIA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/DISTRICT_OF_COLUMBIA_2019.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Escárcega</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -805,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -818,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Otzoloapan</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1041,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1054,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1067,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -1080,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1111,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -1124,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Alpoyeca</t>
@@ -1137,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Atenango Del Río</t>
@@ -1150,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -1163,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -1176,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -1189,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -1202,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -1215,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -1228,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1241,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -1254,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -1267,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1298,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1311,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -1324,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1368,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1381,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1412,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1425,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -1438,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Tlaltizapán De Zapata</t>
@@ -1451,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -1464,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1495,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1526,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Chalcatongo De Hidalgo</t>
@@ -1539,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -1552,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Huautepec</t>
@@ -1565,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Ixtlán De Juárez</t>
@@ -1578,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -1591,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Magdalena Peñasco</t>
@@ -1604,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Mariscala De Juárez</t>
@@ -1617,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -1630,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -1643,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>San Antonio Huitepec</t>
@@ -1656,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>San Juan Bautista Cuicatlán</t>
@@ -1669,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>San Juan Bautista Guelache</t>
@@ -1682,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>San Juan Bautista Jayacatlán</t>
@@ -1695,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>San Pablo Huitzo</t>
@@ -1708,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -1721,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Santa Catarina Quiané</t>
@@ -1734,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Santa Cruz Itundujia</t>
@@ -1747,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Santa Cruz Xoxocotlán</t>
@@ -1760,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -1773,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Tataltepec De Valdés</t>
@@ -1786,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1817,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Chichiquila</t>
@@ -1830,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -1843,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Chinantla</t>
@@ -1856,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1869,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -1882,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Ixcaquixtla</t>
@@ -1895,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -1908,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -1921,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Jopala</t>
@@ -1934,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -1947,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1960,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>San Andrés Cholula</t>
@@ -1973,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -1986,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -1999,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Tepanco De López</t>
@@ -2012,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Tianguismanalco</t>
@@ -2025,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -2038,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2069,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Tolimán</t>
@@ -2082,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2113,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2144,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -2157,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2188,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -2201,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2232,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Tepeyanco</t>
@@ -2245,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2276,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -2289,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -2302,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -2315,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2328,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2341,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -2354,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2385,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2416,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Total</t>
